--- a/biology/Botanique/Kierschlegeria_lycioides/Kierschlegeria_lycioides.xlsx
+++ b/biology/Botanique/Kierschlegeria_lycioides/Kierschlegeria_lycioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuchsia lycioides est une espèce de plantes dicotylédones de la famille des Onagraceae. Ce Fuchsia atypique, épineux et arbustif, se rencontre en Amérique du Sud. C'est l'unique espèce de la section Kierschlegeria, c'en est par conséquent aussi l'espèce type. Elle a été décrite en 1800 par le botaniste britannique Henry Cranke Andrews. L'épithète spécifique lycioides signifie « qui ressemble aux Lycium », allusion à son aspect qui rappelle celui d'un buis épineux, Lycium afrum[5]. Tandis que Kierschlegeria est un hommage d'Édouard Spach à son ami le docteur Kierschleger, auteur d'une flore d'Alsace[6],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fuchsia lycioides est une espèce de plantes dicotylédones de la famille des Onagraceae. Ce Fuchsia atypique, épineux et arbustif, se rencontre en Amérique du Sud. C'est l'unique espèce de la section Kierschlegeria, c'en est par conséquent aussi l'espèce type. Elle a été décrite en 1800 par le botaniste britannique Henry Cranke Andrews. L'épithète spécifique lycioides signifie « qui ressemble aux Lycium », allusion à son aspect qui rappelle celui d'un buis épineux, Lycium afrum. Tandis que Kierschlegeria est un hommage d'Édouard Spach à son ami le docteur Kierschleger, auteur d'une flore d'Alsace,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Planche botanique de 1807
@@ -547,9 +561,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Chili et Bolivie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Chili et Bolivie.
 </t>
         </is>
       </c>
